--- a/Code/Results/Cases/Case_9_34/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_34/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.992806331141416</v>
+        <v>0.9933942373423211</v>
       </c>
       <c r="D2">
-        <v>1.015587086805053</v>
+        <v>1.015963193952404</v>
       </c>
       <c r="E2">
-        <v>1.000241655934566</v>
+        <v>1.000754247802089</v>
       </c>
       <c r="F2">
-        <v>1.013505949691736</v>
+        <v>1.013760632950742</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.041182282360719</v>
+        <v>1.041344917214472</v>
       </c>
       <c r="J2">
-        <v>1.015204353337595</v>
+        <v>1.015774336899211</v>
       </c>
       <c r="K2">
-        <v>1.026833457182941</v>
+        <v>1.027204527068837</v>
       </c>
       <c r="L2">
-        <v>1.011697625132276</v>
+        <v>1.012203084746787</v>
       </c>
       <c r="M2">
-        <v>1.02478027800966</v>
+        <v>1.025031532112375</v>
       </c>
       <c r="N2">
-        <v>1.008973617734577</v>
+        <v>1.01137820182688</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028184211084196</v>
+        <v>1.028383065307165</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.030043693620783</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.030314951015865</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.01937754016214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9964671767840826</v>
+        <v>0.9969190086319245</v>
       </c>
       <c r="D3">
-        <v>1.017972460703964</v>
+        <v>1.01816909335345</v>
       </c>
       <c r="E3">
-        <v>1.003099100638008</v>
+        <v>1.003493566161624</v>
       </c>
       <c r="F3">
-        <v>1.016501839136882</v>
+        <v>1.016697312365453</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.041728450031155</v>
+        <v>1.041815808723761</v>
       </c>
       <c r="J3">
-        <v>1.01705461564276</v>
+        <v>1.017494018422524</v>
       </c>
       <c r="K3">
-        <v>1.028380431224725</v>
+        <v>1.028574657792278</v>
       </c>
       <c r="L3">
-        <v>1.01369248087789</v>
+        <v>1.014081940468738</v>
       </c>
       <c r="M3">
-        <v>1.026927841532729</v>
+        <v>1.027120914247206</v>
       </c>
       <c r="N3">
-        <v>1.009606713311664</v>
+        <v>1.011845991918445</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.029883891236518</v>
+        <v>1.030036697622894</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.031134868429225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.031280800867637</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019643780999322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9987934995883635</v>
+        <v>0.9991599556161591</v>
       </c>
       <c r="D4">
-        <v>1.019490833610474</v>
+        <v>1.019574179568866</v>
       </c>
       <c r="E4">
-        <v>1.004920756072885</v>
+        <v>1.005240991832071</v>
       </c>
       <c r="F4">
-        <v>1.018412376103424</v>
+        <v>1.018570778251736</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.042065078346359</v>
+        <v>1.042104864832292</v>
       </c>
       <c r="J4">
-        <v>1.018228118202661</v>
+        <v>1.018585174252032</v>
       </c>
       <c r="K4">
-        <v>1.0293595778087</v>
+        <v>1.029441964904162</v>
       </c>
       <c r="L4">
-        <v>1.014960152495162</v>
+        <v>1.015276571588199</v>
       </c>
       <c r="M4">
-        <v>1.028293545019601</v>
+        <v>1.02845012020881</v>
       </c>
       <c r="N4">
-        <v>1.010008077414867</v>
+        <v>1.012142732826477</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.030964769369828</v>
+        <v>1.031088689791221</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.031828130556144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.031895061647774</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019809788030311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9997644207523134</v>
+        <v>1.00009547264334</v>
       </c>
       <c r="D5">
-        <v>1.020127360535071</v>
+        <v>1.020163627283961</v>
       </c>
       <c r="E5">
-        <v>1.005682766954313</v>
+        <v>1.005972193698287</v>
       </c>
       <c r="F5">
-        <v>1.019210264836483</v>
+        <v>1.019353312401087</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.042204472724521</v>
+        <v>1.04222446772746</v>
       </c>
       <c r="J5">
-        <v>1.018718648258258</v>
+        <v>1.01904146153175</v>
       </c>
       <c r="K5">
-        <v>1.029770120071563</v>
+        <v>1.029805980606364</v>
       </c>
       <c r="L5">
-        <v>1.015490194696489</v>
+        <v>1.015776264611069</v>
       </c>
       <c r="M5">
-        <v>1.028863308346775</v>
+        <v>1.029004750328731</v>
       </c>
       <c r="N5">
-        <v>1.010176073891301</v>
+        <v>1.012267009903891</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.031415704766299</v>
+        <v>1.031527648037147</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.032125672172324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.032160413839445</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.01987928087889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9999302958359371</v>
+        <v>1.000255286234948</v>
       </c>
       <c r="D6">
-        <v>1.020238863468673</v>
+        <v>1.020267125966918</v>
       </c>
       <c r="E6">
-        <v>1.005813447914652</v>
+        <v>1.006097594953858</v>
       </c>
       <c r="F6">
-        <v>1.019345336435062</v>
+        <v>1.019485756446401</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042229896683323</v>
+        <v>1.042246515175134</v>
       </c>
       <c r="J6">
-        <v>1.018804028124566</v>
+        <v>1.019120972260885</v>
       </c>
       <c r="K6">
-        <v>1.029843667203488</v>
+        <v>1.02987161458049</v>
       </c>
       <c r="L6">
-        <v>1.015581946241631</v>
+        <v>1.015862812907728</v>
       </c>
       <c r="M6">
-        <v>1.028960113906943</v>
+        <v>1.029098965095514</v>
       </c>
       <c r="N6">
-        <v>1.010205637641645</v>
+        <v>1.012288919637348</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.031492320854154</v>
+        <v>1.031602213647723</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.032186514988136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.032216528875445</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019892302750972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9988157187452543</v>
+        <v>0.9991888472598236</v>
       </c>
       <c r="D7">
-        <v>1.01951268143554</v>
+        <v>1.019600469811416</v>
       </c>
       <c r="E7">
-        <v>1.004939315298192</v>
+        <v>1.005265549208204</v>
       </c>
       <c r="F7">
-        <v>1.018427042744723</v>
+        <v>1.018588328326561</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.042072998089284</v>
+        <v>1.042114751413424</v>
       </c>
       <c r="J7">
-        <v>1.018243665346894</v>
+        <v>1.01860722689463</v>
       </c>
       <c r="K7">
-        <v>1.029378249891802</v>
+        <v>1.029465028693028</v>
       </c>
       <c r="L7">
-        <v>1.014975508883797</v>
+        <v>1.015297856151878</v>
       </c>
       <c r="M7">
-        <v>1.028305113915972</v>
+        <v>1.028464539976958</v>
       </c>
       <c r="N7">
-        <v>1.010014290685346</v>
+        <v>1.012175382547963</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.030973925498833</v>
+        <v>1.031100102222402</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.031861661629224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.031933694261044</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019816169932195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,105 +811,123 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9940640088960473</v>
+        <v>0.9946281698028215</v>
       </c>
       <c r="D8">
-        <v>1.016414983247852</v>
+        <v>1.0167462666628</v>
       </c>
       <c r="E8">
-        <v>1.001223555686299</v>
+        <v>1.001716250637511</v>
       </c>
       <c r="F8">
-        <v>1.014529317363807</v>
+        <v>1.014773602809305</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.041377860715076</v>
+        <v>1.041522093237847</v>
       </c>
       <c r="J8">
-        <v>1.015845814156063</v>
+        <v>1.016393353334478</v>
       </c>
       <c r="K8">
-        <v>1.027377100751498</v>
+        <v>1.027704078167113</v>
       </c>
       <c r="L8">
-        <v>1.012386978602282</v>
+        <v>1.012873024297857</v>
       </c>
       <c r="M8">
-        <v>1.025516011715325</v>
+        <v>1.025757106812862</v>
       </c>
       <c r="N8">
-        <v>1.009194308958344</v>
+        <v>1.011626430308416</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.02876650491381</v>
+        <v>1.02895731866602</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.030451269826775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.030693611702617</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019478553870007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9853368659992189</v>
+        <v>0.9862359923430212</v>
       </c>
       <c r="D9">
-        <v>1.010736582740352</v>
+        <v>1.011503032312189</v>
       </c>
       <c r="E9">
-        <v>0.9944452474213997</v>
+        <v>0.9952280497243562</v>
       </c>
       <c r="F9">
-        <v>1.007431371110386</v>
+        <v>1.007821933127912</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.040012753413815</v>
+        <v>1.040339260719615</v>
       </c>
       <c r="J9">
-        <v>1.011418259148793</v>
+        <v>1.012284334274327</v>
       </c>
       <c r="K9">
-        <v>1.023657835396929</v>
+        <v>1.024412197518617</v>
       </c>
       <c r="L9">
-        <v>1.007629094123632</v>
+        <v>1.008399025878973</v>
       </c>
       <c r="M9">
-        <v>1.020405019232177</v>
+        <v>1.020789366971464</v>
       </c>
       <c r="N9">
-        <v>1.007677500282663</v>
+        <v>1.010517137067758</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.024721417853893</v>
+        <v>1.025025610107074</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.02781822946647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.02836249710636</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018823426889979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9793696400895</v>
+        <v>0.9805362862368028</v>
       </c>
       <c r="D10">
-        <v>1.006882939013419</v>
+        <v>1.00797358936821</v>
       </c>
       <c r="E10">
-        <v>0.9898561387815895</v>
+        <v>0.9908706243895048</v>
       </c>
       <c r="F10">
-        <v>1.00286317186964</v>
+        <v>1.003370509814816</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.039044377356959</v>
+        <v>1.039506716427536</v>
       </c>
       <c r="J10">
-        <v>1.008426381709081</v>
+        <v>1.009544000742365</v>
       </c>
       <c r="K10">
-        <v>1.021129022053795</v>
+        <v>1.022200355275837</v>
       </c>
       <c r="L10">
-        <v>1.004410991380646</v>
+        <v>1.00540669240566</v>
       </c>
       <c r="M10">
-        <v>1.017180922578897</v>
+        <v>1.017679174167351</v>
       </c>
       <c r="N10">
-        <v>1.006656468459551</v>
+        <v>1.00989176777076</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.02222217267431</v>
+        <v>1.022616490057274</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.026047178018171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.02681725058289</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018378317282174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9775046659892103</v>
+        <v>0.9787890351118199</v>
       </c>
       <c r="D11">
-        <v>1.005763020829499</v>
+        <v>1.006971686412606</v>
       </c>
       <c r="E11">
-        <v>0.9885200029935436</v>
+        <v>0.989636351163794</v>
       </c>
       <c r="F11">
-        <v>1.003399321229057</v>
+        <v>1.003953557455431</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.038856669672197</v>
+        <v>1.039367155390145</v>
       </c>
       <c r="J11">
-        <v>1.007844173931886</v>
+        <v>1.009071634675557</v>
       </c>
       <c r="K11">
-        <v>1.020577067271067</v>
+        <v>1.02176331376535</v>
       </c>
       <c r="L11">
-        <v>1.003661711903371</v>
+        <v>1.004756393439574</v>
       </c>
       <c r="M11">
-        <v>1.018257414800236</v>
+        <v>1.018801298638345</v>
       </c>
       <c r="N11">
-        <v>1.006496064045433</v>
+        <v>1.010021373224416</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023517984790854</v>
+        <v>1.023948190882529</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.025690174364215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.026544702602361</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018332901831169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9770705831090274</v>
+        <v>0.9783828784345048</v>
       </c>
       <c r="D12">
-        <v>1.005539431765893</v>
+        <v>1.006771499003491</v>
       </c>
       <c r="E12">
-        <v>0.9882557227639457</v>
+        <v>0.9893954108384841</v>
       </c>
       <c r="F12">
-        <v>1.004449817386797</v>
+        <v>1.005012892343038</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.038869853137316</v>
+        <v>1.039388643772071</v>
       </c>
       <c r="J12">
-        <v>1.007878088372067</v>
+        <v>1.009131151761177</v>
       </c>
       <c r="K12">
-        <v>1.020561268979306</v>
+        <v>1.021770107567636</v>
       </c>
       <c r="L12">
-        <v>1.003611437273425</v>
+        <v>1.004728637727401</v>
       </c>
       <c r="M12">
-        <v>1.019492259599545</v>
+        <v>1.020044679314985</v>
       </c>
       <c r="N12">
-        <v>1.006538855057423</v>
+        <v>1.010162229521268</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.024825917530955</v>
+        <v>1.025262723098479</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025679004196573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026549506040503</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018364059326433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9777152128782799</v>
+        <v>0.9789771924023573</v>
       </c>
       <c r="D13">
-        <v>1.006002076152903</v>
+        <v>1.007177978421395</v>
       </c>
       <c r="E13">
-        <v>0.9888025876835927</v>
+        <v>0.9898970853146291</v>
       </c>
       <c r="F13">
-        <v>1.005991280851874</v>
+        <v>1.006530302472136</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.039048496254677</v>
+        <v>1.039541938636603</v>
       </c>
       <c r="J13">
-        <v>1.008397398542439</v>
+        <v>1.009602729737898</v>
       </c>
       <c r="K13">
-        <v>1.020971531473198</v>
+        <v>1.022125363280868</v>
       </c>
       <c r="L13">
-        <v>1.004102736359227</v>
+        <v>1.00517574080505</v>
       </c>
       <c r="M13">
-        <v>1.020960939100898</v>
+        <v>1.021489835203608</v>
       </c>
       <c r="N13">
-        <v>1.006745099382355</v>
+        <v>1.010288063458166</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026267206282748</v>
+        <v>1.026685304037104</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025966556480889</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026797918220792</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018459442906731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9786467791809323</v>
+        <v>0.9798394790735443</v>
       </c>
       <c r="D14">
-        <v>1.006632539531415</v>
+        <v>1.007734458860868</v>
       </c>
       <c r="E14">
-        <v>0.9895457887460634</v>
+        <v>0.9905789521130896</v>
       </c>
       <c r="F14">
-        <v>1.007266206284276</v>
+        <v>1.007774317012899</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.039246514471862</v>
+        <v>1.039707662122776</v>
       </c>
       <c r="J14">
-        <v>1.00897263864427</v>
+        <v>1.010112585278137</v>
       </c>
       <c r="K14">
-        <v>1.021447256734473</v>
+        <v>1.022528753419534</v>
       </c>
       <c r="L14">
-        <v>1.004684817994375</v>
+        <v>1.005697955095993</v>
       </c>
       <c r="M14">
-        <v>1.022069172177631</v>
+        <v>1.022567873943622</v>
       </c>
       <c r="N14">
-        <v>1.006960885142168</v>
+        <v>1.010368734844795</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027318284583369</v>
+        <v>1.027712459450783</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.026304359747775</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027084708485389</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018554590506186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9791192545720325</v>
+        <v>0.9802784291865195</v>
       </c>
       <c r="D15">
-        <v>1.006945341232461</v>
+        <v>1.008011940902168</v>
       </c>
       <c r="E15">
-        <v>0.9899134532901255</v>
+        <v>0.9909171749965143</v>
       </c>
       <c r="F15">
-        <v>1.007732627749505</v>
+        <v>1.008226190508922</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.039335126997049</v>
+        <v>1.039781140268857</v>
       </c>
       <c r="J15">
-        <v>1.00923073379166</v>
+        <v>1.010339090870998</v>
       </c>
       <c r="K15">
-        <v>1.021666250031916</v>
+        <v>1.022713232067822</v>
       </c>
       <c r="L15">
-        <v>1.004955126117677</v>
+        <v>1.005939544233535</v>
       </c>
       <c r="M15">
-        <v>1.022439051005981</v>
+        <v>1.022923547569396</v>
       </c>
       <c r="N15">
-        <v>1.007053459605164</v>
+        <v>1.010391488219425</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.02764849946893</v>
+        <v>1.028031436351291</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026465140747569</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027221652358546</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018594756910078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9815023433102525</v>
+        <v>0.9825086205037937</v>
       </c>
       <c r="D16">
-        <v>1.008474985788989</v>
+        <v>1.009379414870615</v>
       </c>
       <c r="E16">
-        <v>0.9917288848245742</v>
+        <v>0.9925995469029024</v>
       </c>
       <c r="F16">
-        <v>1.009409029658028</v>
+        <v>1.009837628178893</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.039719800381048</v>
+        <v>1.040097824704642</v>
       </c>
       <c r="J16">
-        <v>1.010390381152908</v>
+        <v>1.011354756984598</v>
       </c>
       <c r="K16">
-        <v>1.022656656098331</v>
+        <v>1.023545174776419</v>
       </c>
       <c r="L16">
-        <v>1.006211977900135</v>
+        <v>1.007066641949867</v>
       </c>
       <c r="M16">
-        <v>1.023574269215514</v>
+        <v>1.023995341449546</v>
       </c>
       <c r="N16">
-        <v>1.007443772972039</v>
+        <v>1.010455452223787</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028506703971107</v>
+        <v>1.028839521099293</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027168613986842</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.027813379578846</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018757694622127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9828515221876687</v>
+        <v>0.9837847329322633</v>
       </c>
       <c r="D17">
-        <v>1.009325233890837</v>
+        <v>1.010149588864899</v>
       </c>
       <c r="E17">
-        <v>0.992741370662398</v>
+        <v>0.993548989402366</v>
       </c>
       <c r="F17">
-        <v>1.010032909025778</v>
+        <v>1.010431018796492</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.039910971794396</v>
+        <v>1.040256055354456</v>
       </c>
       <c r="J17">
-        <v>1.010985023840397</v>
+        <v>1.01188062438353</v>
       </c>
       <c r="K17">
-        <v>1.023171709977556</v>
+        <v>1.023981968952259</v>
       </c>
       <c r="L17">
-        <v>1.006877878294678</v>
+        <v>1.00767108161392</v>
       </c>
       <c r="M17">
-        <v>1.023867282465856</v>
+        <v>1.024258593395476</v>
       </c>
       <c r="N17">
-        <v>1.007632187861206</v>
+        <v>1.010492966416429</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.02860803455991</v>
+        <v>1.028917359479788</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027535403853963</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028125081454362</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018834849196971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9834017890227865</v>
+        <v>0.9843147533179406</v>
       </c>
       <c r="D18">
-        <v>1.009638562474477</v>
+        <v>1.010440412587483</v>
       </c>
       <c r="E18">
-        <v>0.9931222650367649</v>
+        <v>0.9939131306817577</v>
       </c>
       <c r="F18">
-        <v>1.009640162945255</v>
+        <v>1.010030947259563</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.039941523560889</v>
+        <v>1.040278322549226</v>
       </c>
       <c r="J18">
-        <v>1.011106862151193</v>
+        <v>1.011983713399036</v>
       </c>
       <c r="K18">
-        <v>1.023292970288186</v>
+        <v>1.024081331977683</v>
       </c>
       <c r="L18">
-        <v>1.007060782696718</v>
+        <v>1.007837765144578</v>
       </c>
       <c r="M18">
-        <v>1.02329454380892</v>
+        <v>1.023678751072108</v>
       </c>
       <c r="N18">
-        <v>1.007649126641741</v>
+        <v>1.010461712958872</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.027914894611092</v>
+        <v>1.028218668732678</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027609367399389</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028182430511671</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018834839080855</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9832136415002372</v>
+        <v>0.9841486220380664</v>
       </c>
       <c r="D19">
-        <v>1.009468052628387</v>
+        <v>1.010296073488811</v>
       </c>
       <c r="E19">
-        <v>0.9929188587825807</v>
+        <v>0.9937298784890801</v>
       </c>
       <c r="F19">
-        <v>1.008224502044011</v>
+        <v>1.008626822925694</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.039830869072417</v>
+        <v>1.040180070102617</v>
       </c>
       <c r="J19">
-        <v>1.010787733945949</v>
+        <v>1.011685929102492</v>
       </c>
       <c r="K19">
-        <v>1.023061654533888</v>
+        <v>1.023875815736506</v>
       </c>
       <c r="L19">
-        <v>1.006795745263087</v>
+        <v>1.007592597430873</v>
       </c>
       <c r="M19">
-        <v>1.021838974013006</v>
+        <v>1.022234535627082</v>
       </c>
       <c r="N19">
-        <v>1.007510533462063</v>
+        <v>1.010347572687178</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.026433964413194</v>
+        <v>1.026746820767619</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027452287694291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028044217298988</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.01876651787744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9809422737451915</v>
+        <v>0.9820160590303425</v>
       </c>
       <c r="D20">
-        <v>1.007915211666366</v>
+        <v>1.00890425850465</v>
       </c>
       <c r="E20">
-        <v>0.9910667620413453</v>
+        <v>0.9920001015435179</v>
       </c>
       <c r="F20">
-        <v>1.00406754901538</v>
+        <v>1.00453434971068</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.039315233691914</v>
+        <v>1.039734430770457</v>
       </c>
       <c r="J20">
-        <v>1.009228134162727</v>
+        <v>1.010258277065632</v>
       </c>
       <c r="K20">
-        <v>1.02182029497936</v>
+        <v>1.022792323634152</v>
       </c>
       <c r="L20">
-        <v>1.005268531758417</v>
+        <v>1.006185093390032</v>
       </c>
       <c r="M20">
-        <v>1.018039250574892</v>
+        <v>1.018497933896274</v>
       </c>
       <c r="N20">
-        <v>1.006933020255384</v>
+        <v>1.009988801128327</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.022890702837056</v>
+        <v>1.023253710296905</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.026578550497951</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027282495984992</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018500426489914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9763100910973174</v>
+        <v>0.9777029588876668</v>
       </c>
       <c r="D21">
-        <v>1.004913062568235</v>
+        <v>1.006237635117748</v>
       </c>
       <c r="E21">
-        <v>0.9874996461703733</v>
+        <v>0.9887130790941856</v>
       </c>
       <c r="F21">
-        <v>1.000150936168423</v>
+        <v>1.000757923940239</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.038520368897538</v>
+        <v>1.039082631157874</v>
       </c>
       <c r="J21">
-        <v>1.006832789657117</v>
+        <v>1.008163423064554</v>
       </c>
       <c r="K21">
-        <v>1.019801949484124</v>
+        <v>1.021101789427777</v>
       </c>
       <c r="L21">
-        <v>1.002721775695913</v>
+        <v>1.003911487898848</v>
       </c>
       <c r="M21">
-        <v>1.015129449582189</v>
+        <v>1.015724951433639</v>
       </c>
       <c r="N21">
-        <v>1.006108282935236</v>
+        <v>1.009835322184664</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.020546051213536</v>
+        <v>1.021017364373443</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025154740313792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.026090799935565</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018154955488926</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9733770157357369</v>
+        <v>0.9749724133265264</v>
       </c>
       <c r="D22">
-        <v>1.003014393759373</v>
+        <v>1.004551917292505</v>
       </c>
       <c r="E22">
-        <v>0.9852531022913839</v>
+        <v>0.9866442993160529</v>
       </c>
       <c r="F22">
-        <v>0.9978067377162567</v>
+        <v>0.9985026983625779</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038009761801278</v>
+        <v>1.038662908160491</v>
       </c>
       <c r="J22">
-        <v>1.005331881954525</v>
+        <v>1.006851796522067</v>
       </c>
       <c r="K22">
-        <v>1.01852637050993</v>
+        <v>1.020033735947038</v>
       </c>
       <c r="L22">
-        <v>1.001122470154684</v>
+        <v>1.002485060843691</v>
       </c>
       <c r="M22">
-        <v>1.013421769133251</v>
+        <v>1.014103875561034</v>
       </c>
       <c r="N22">
-        <v>1.005592323210503</v>
+        <v>1.009736563598141</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.019194496448058</v>
+        <v>1.019734354331807</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024239144564261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.025320645984491</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017935463461694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.974928966057078</v>
+        <v>0.9764044517553274</v>
       </c>
       <c r="D23">
-        <v>1.004012239798445</v>
+        <v>1.005427366254299</v>
       </c>
       <c r="E23">
-        <v>0.9864397410373663</v>
+        <v>0.9877253445368074</v>
       </c>
       <c r="F23">
-        <v>0.999049384106092</v>
+        <v>0.999692684706774</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.038276882859614</v>
+        <v>1.038877636924294</v>
       </c>
       <c r="J23">
-        <v>1.006122334390597</v>
+        <v>1.007530080574693</v>
       </c>
       <c r="K23">
-        <v>1.019193650941367</v>
+        <v>1.020581729072979</v>
       </c>
       <c r="L23">
-        <v>1.001965536184479</v>
+        <v>1.003225398085817</v>
       </c>
       <c r="M23">
-        <v>1.014326447690705</v>
+        <v>1.014957279316226</v>
       </c>
       <c r="N23">
-        <v>1.005863047955129</v>
+        <v>1.00974371622337</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.019910510499741</v>
+        <v>1.02040978606391</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.024701188568979</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.025697405100618</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.01804623226813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9809289843424149</v>
+        <v>0.9820048666040356</v>
       </c>
       <c r="D24">
-        <v>1.007889753667493</v>
+        <v>1.008881296850471</v>
       </c>
       <c r="E24">
-        <v>0.9910461081691404</v>
+        <v>0.9919814100997344</v>
       </c>
       <c r="F24">
-        <v>1.003867136799133</v>
+        <v>1.004335218558544</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.039295131772709</v>
+        <v>1.039715635900473</v>
       </c>
       <c r="J24">
-        <v>1.009181450060412</v>
+        <v>1.010213664901359</v>
       </c>
       <c r="K24">
-        <v>1.021779718701489</v>
+        <v>1.022754221634677</v>
       </c>
       <c r="L24">
-        <v>1.005232310180712</v>
+        <v>1.006150819833036</v>
       </c>
       <c r="M24">
-        <v>1.017826679827113</v>
+        <v>1.018286628230738</v>
       </c>
       <c r="N24">
-        <v>1.006912236660463</v>
+        <v>1.009969095474305</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.022680786030601</v>
+        <v>1.023044813555399</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.026522109339997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027225139409116</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018486987270608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9876499933531762</v>
+        <v>0.9884496283597751</v>
       </c>
       <c r="D25">
-        <v>1.012249844855365</v>
+        <v>1.012893409247285</v>
       </c>
       <c r="E25">
-        <v>0.9962379490713855</v>
+        <v>0.9969343967361783</v>
       </c>
       <c r="F25">
-        <v>1.009300489470859</v>
+        <v>1.00964754669919</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.040390954379356</v>
+        <v>1.040665786859658</v>
       </c>
       <c r="J25">
-        <v>1.012600254483544</v>
+        <v>1.013372060622866</v>
       </c>
       <c r="K25">
-        <v>1.024660928079604</v>
+        <v>1.025294815310968</v>
       </c>
       <c r="L25">
-        <v>1.008894948118581</v>
+        <v>1.009580489388521</v>
       </c>
       <c r="M25">
-        <v>1.021756122776851</v>
+        <v>1.022097920482415</v>
       </c>
       <c r="N25">
-        <v>1.00808414143146</v>
+        <v>1.010781527284127</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.025790748979685</v>
+        <v>1.026061264565103</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.028556422935683</v>
+        <v>1.029018300402756</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019002810307245</v>
       </c>
     </row>
   </sheetData>
